--- a/reports/semiauto_annotations_class_distributions.xlsx
+++ b/reports/semiauto_annotations_class_distributions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projeto Final\Projeto Petrobras\semiauto-video-annotation\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDBA56-1B94-42E6-BDBF-DF62B3B4417A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCCE8D-95F5-43A8-AFCF-031126FD3262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>Manual</t>
   </si>
@@ -98,10 +98,22 @@
     <t>obs: enterramento foi anotado só com pesos na vdd</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Anode</t>
+  </si>
+  <si>
+    <t>Buried</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Repair</t>
   </si>
 </sst>
 </file>
@@ -352,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -386,9 +398,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -404,75 +416,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,16 +723,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -772,33 +743,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="36" t="s">
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="39" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="M4" s="36" t="s">
+      <c r="H4" s="35"/>
+      <c r="M4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="39" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
@@ -839,8 +810,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -875,7 +846,7 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -900,8 +871,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -927,7 +898,7 @@
         <f>G7/G$8</f>
         <v>0.956803935692501</v>
       </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
@@ -950,8 +921,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -979,7 +950,7 @@
         <f>G8/G$8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1008,8 +979,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1044,7 +1015,7 @@
       <c r="J9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1069,8 +1040,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1067,7 @@
         <f>G10/G$11</f>
         <v>0.99105328927698</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1090,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1119,7 @@
         <f>G11/G$11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1177,8 +1148,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1213,7 +1184,7 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1238,8 +1209,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1236,7 @@
         <f>G13/G$14</f>
         <v>0.83938272456305696</v>
       </c>
-      <c r="K13" s="28"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1259,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1288,7 @@
         <f>G14/G$14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="28"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1343,8 +1314,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1379,7 +1350,7 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="25" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1404,8 +1375,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1402,7 @@
         <f t="shared" si="4"/>
         <v>0.89585872289544477</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1454,8 +1425,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1454,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1512,8 +1483,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1548,7 +1519,7 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -1577,8 +1548,8 @@
         <v>0.85129857149447208</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1604,7 +1575,7 @@
         <f t="shared" si="4"/>
         <v>0.14821372454337112</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1631,8 +1602,8 @@
         <v>0.14870142850552795</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1660,7 +1631,7 @@
         <f t="shared" si="4"/>
         <v>0.99708738608230429</v>
       </c>
-      <c r="K20" s="29"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1689,8 +1660,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1725,7 +1696,7 @@
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="25" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -1754,8 +1725,8 @@
         <v>0.32965764545643422</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1781,7 +1752,7 @@
         <f t="shared" ref="H22:H23" si="7">G22/G$23</f>
         <v>0.67034235454356572</v>
       </c>
-      <c r="K22" s="28"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1808,8 +1779,8 @@
         <v>0.67034235454356572</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="27"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1808,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K23" s="29"/>
+      <c r="K23" s="27"/>
       <c r="L23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1866,33 +1837,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>11</v>
@@ -1900,290 +1875,507 @@
       <c r="D28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" t="s">
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>557</v>
+      </c>
+      <c r="D29" s="36">
+        <f>C29/C31</f>
+        <v>7.2140914389327807E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5080</v>
+      </c>
+      <c r="F29" s="36">
+        <f>E29/E$8</f>
+        <v>4.1375827720175604E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <f>C29+E29</f>
+        <v>5637</v>
+      </c>
+      <c r="H29" s="42">
+        <f>G29/G$8</f>
+        <v>4.3196064307498963E-2</v>
+      </c>
+      <c r="I29" s="45">
+        <f>ABS(D29-F29)</f>
+        <v>3.0765086669152203E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="29"/>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>7164</v>
+      </c>
+      <c r="D30" s="37">
+        <f>C30/C31</f>
+        <v>0.92785908561067221</v>
+      </c>
+      <c r="E30" s="2">
+        <v>117697</v>
+      </c>
+      <c r="F30" s="37">
+        <f>E30/E$8</f>
+        <v>0.95862417227982444</v>
+      </c>
+      <c r="G30" s="2">
+        <f>C30+E30</f>
+        <v>124861</v>
+      </c>
+      <c r="H30" s="43">
+        <f>G30/G$8</f>
+        <v>0.956803935692501</v>
+      </c>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="29"/>
+      <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="42">
-        <v>5637</v>
-      </c>
-      <c r="D29" s="43">
-        <f t="shared" ref="D29:D40" si="11">C29/$I$29</f>
-        <v>4.3170260997426789E-2</v>
-      </c>
-      <c r="E29" s="44">
-        <v>4.3196064307498963E-2</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="15"/>
-      <c r="I29">
-        <v>130576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="45" t="s">
+      <c r="C31" s="2">
+        <f>C29+C30</f>
+        <v>7721</v>
+      </c>
+      <c r="D31" s="38">
+        <f>C31/C$8</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <f>E29+E30</f>
+        <v>122777</v>
+      </c>
+      <c r="F31" s="38">
+        <f>E31/E$8</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" ref="G31:G43" si="11">C31+E31</f>
+        <v>130498</v>
+      </c>
+      <c r="H31" s="44">
+        <f>G31/G$8</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18">
+        <v>5501</v>
+      </c>
+      <c r="D32" s="39">
+        <f>C32/C$23</f>
+        <v>0.62976531196336571</v>
+      </c>
+      <c r="E32" s="1">
+        <v>37339</v>
+      </c>
+      <c r="F32" s="39">
+        <f>E32/E$23</f>
+        <v>0.3080318104571928</v>
+      </c>
+      <c r="G32" s="1">
+        <f>C32+E32</f>
+        <v>42840</v>
+      </c>
+      <c r="H32" s="42">
+        <f>G32/G$23</f>
+        <v>0.32965764545643422</v>
+      </c>
+      <c r="I32" s="45">
+        <f>ABS(D32-F32)</f>
+        <v>0.32173350150617291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18">
+        <v>3234</v>
+      </c>
+      <c r="D33" s="40">
+        <f>C33/C$23</f>
+        <v>0.37023468803663423</v>
+      </c>
+      <c r="E33" s="2">
+        <v>83879</v>
+      </c>
+      <c r="F33" s="40">
+        <f>E33/E$23</f>
+        <v>0.69196818954280714</v>
+      </c>
+      <c r="G33" s="2">
+        <f>C33+E33</f>
+        <v>87113</v>
+      </c>
+      <c r="H33" s="43">
+        <f>G33/G$23</f>
+        <v>0.67034235454356572</v>
+      </c>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="46">
-        <v>130498</v>
-      </c>
-      <c r="D30" s="47">
+      <c r="C34" s="3">
+        <f>C32+C33</f>
+        <v>8735</v>
+      </c>
+      <c r="D34" s="41">
+        <f>C34/C$23</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <f>E32+E33</f>
+        <v>121218</v>
+      </c>
+      <c r="F34" s="41">
+        <f>E34/E$23</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <f>C34+E34</f>
+        <v>129953</v>
+      </c>
+      <c r="H34" s="44">
+        <f>G34/G$23</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="18">
+        <v>4288</v>
+      </c>
+      <c r="D35" s="36">
+        <f>C35/C$14</f>
+        <v>0.405714826379033</v>
+      </c>
+      <c r="E35" s="8">
+        <v>16674</v>
+      </c>
+      <c r="F35" s="36">
+        <f>E35/E$14</f>
+        <v>0.13901950975487745</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="11"/>
-        <v>0.99940264673446877</v>
-      </c>
-      <c r="E30" s="48">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="41" t="s">
+        <v>20962</v>
+      </c>
+      <c r="H35" s="42">
+        <f>G35/G$14</f>
+        <v>0.16061727543694304</v>
+      </c>
+      <c r="I35" s="45">
+        <f>ABS(D35-F35)</f>
+        <v>0.26669531662415558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="18">
+        <v>6281</v>
+      </c>
+      <c r="D36" s="37">
+        <f>C36/C$14</f>
+        <v>0.594285173620967</v>
+      </c>
+      <c r="E36" s="8">
+        <v>103266</v>
+      </c>
+      <c r="F36" s="37">
+        <f>E36/E$14</f>
+        <v>0.86098049024512258</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="11"/>
+        <v>109547</v>
+      </c>
+      <c r="H36" s="43">
+        <f>G36/G$14</f>
+        <v>0.83938272456305696</v>
+      </c>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C35+C36</f>
+        <v>10569</v>
+      </c>
+      <c r="D37" s="38">
+        <f>C37/C$14</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <f>E35+E36</f>
+        <v>119940</v>
+      </c>
+      <c r="F37" s="38">
+        <f>E37/E$14</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="11"/>
+        <v>130509</v>
+      </c>
+      <c r="H37" s="44">
+        <f>G37/G$14</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="49">
-        <v>20962</v>
-      </c>
-      <c r="D31" s="43">
+      <c r="C38" s="1">
+        <v>3251</v>
+      </c>
+      <c r="D38" s="36">
+        <f t="shared" ref="D38:D43" si="12">C38/C$17</f>
+        <v>0.3336754593041158</v>
+      </c>
+      <c r="E38" s="7">
+        <v>10336</v>
+      </c>
+      <c r="F38" s="36">
+        <f t="shared" ref="F38:F43" si="13">E38/E$17</f>
+        <v>8.561677876809913E-2</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="11"/>
-        <v>0.1605348609239064</v>
-      </c>
-      <c r="E31" s="44">
-        <v>0.16061727543694304</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="50" t="s">
+        <v>13587</v>
+      </c>
+      <c r="H38" s="42">
+        <f t="shared" ref="H38:H43" si="14">G38/G$17</f>
+        <v>0.10414127710455517</v>
+      </c>
+      <c r="I38" s="45">
+        <f>ABS(D38-F38)</f>
+        <v>0.24805868053601665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="18">
+        <v>6492</v>
+      </c>
+      <c r="D39" s="37">
+        <f t="shared" si="12"/>
+        <v>0.6663245406958842</v>
+      </c>
+      <c r="E39" s="8">
+        <v>110388</v>
+      </c>
+      <c r="F39" s="37">
+        <f t="shared" si="13"/>
+        <v>0.91438322123190086</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="11"/>
+        <v>116880</v>
+      </c>
+      <c r="H39" s="43">
+        <f t="shared" si="14"/>
+        <v>0.89585872289544477</v>
+      </c>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="51">
-        <v>130509</v>
-      </c>
-      <c r="D32" s="52">
+      <c r="C40" s="3">
+        <f>C38+C39</f>
+        <v>9743</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <f>E38+E39</f>
+        <v>120724</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
         <f t="shared" si="11"/>
-        <v>0.99948688886165915</v>
-      </c>
-      <c r="E32" s="53">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="45" t="s">
+        <v>130467</v>
+      </c>
+      <c r="H40" s="44">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="54">
-        <v>42840</v>
-      </c>
-      <c r="D33" s="47">
+      <c r="C41" s="18">
+        <v>1547</v>
+      </c>
+      <c r="D41" s="36">
+        <f t="shared" si="12"/>
+        <v>0.15878066304013139</v>
+      </c>
+      <c r="E41" s="8">
+        <v>109203</v>
+      </c>
+      <c r="F41" s="36">
+        <f t="shared" si="13"/>
+        <v>0.90456744309333692</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="11"/>
-        <v>0.32808479353020464</v>
-      </c>
-      <c r="E33" s="48">
-        <v>0.32965764545643422</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="50" t="s">
+        <v>110750</v>
+      </c>
+      <c r="H41" s="42">
+        <f t="shared" si="14"/>
+        <v>0.84887366153893318</v>
+      </c>
+      <c r="I41" s="45">
+        <f>ABS(D41-F41)</f>
+        <v>0.74578678005320553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="18">
+        <v>7789</v>
+      </c>
+      <c r="D42" s="37">
+        <f t="shared" si="12"/>
+        <v>0.79944575592733247</v>
+      </c>
+      <c r="E42" s="8">
+        <v>11548</v>
+      </c>
+      <c r="F42" s="37">
+        <f t="shared" si="13"/>
+        <v>9.5656207547794969E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="11"/>
+        <v>19337</v>
+      </c>
+      <c r="H42" s="43">
+        <f t="shared" si="14"/>
+        <v>0.14821372454337112</v>
+      </c>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="51">
-        <v>129953</v>
-      </c>
-      <c r="D34" s="52">
+      <c r="C43" s="3">
+        <f>C41+C42</f>
+        <v>9336</v>
+      </c>
+      <c r="D43" s="38">
+        <f t="shared" si="12"/>
+        <v>0.95822641896746386</v>
+      </c>
+      <c r="E43" s="3">
+        <f>E41+E42</f>
+        <v>120751</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" si="13"/>
+        <v>1.0002236506411319</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="11"/>
-        <v>0.9952288322509496</v>
-      </c>
-      <c r="E34" s="53">
-        <v>1</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="55">
-        <v>13587</v>
-      </c>
-      <c r="D35" s="43">
-        <f t="shared" si="11"/>
-        <v>0.10405434383041294</v>
-      </c>
-      <c r="E35" s="44">
-        <v>0.10414127710455517</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="51">
-        <v>130467</v>
-      </c>
-      <c r="D36" s="52">
-        <f t="shared" si="11"/>
-        <v>0.99916523710329619</v>
-      </c>
-      <c r="E36" s="53">
-        <v>1</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="54">
-        <v>110750</v>
-      </c>
-      <c r="D37" s="47">
-        <f t="shared" si="11"/>
-        <v>0.84816505330229142</v>
-      </c>
-      <c r="E37" s="44">
-        <f>C37/C38</f>
-        <v>0.85135332508244488</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="15"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="51">
         <v>130087</v>
       </c>
-      <c r="D38" s="47">
-        <f t="shared" si="11"/>
-        <v>0.99625505452763141</v>
-      </c>
-      <c r="E38" s="53">
+      <c r="H43" s="44">
+        <f t="shared" si="14"/>
         <v>0.99708738608230429</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="55">
-        <v>1167</v>
-      </c>
-      <c r="D39" s="43">
-        <f t="shared" si="11"/>
-        <v>8.9373238573704199E-3</v>
-      </c>
-      <c r="E39" s="44">
-        <v>8.9467107230199565E-3</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="51">
-        <v>130439</v>
-      </c>
-      <c r="D40" s="52">
-        <f t="shared" si="11"/>
-        <v>0.99895080259772084</v>
-      </c>
-      <c r="E40" s="53">
-        <v>1</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="23"/>
+      <c r="I43" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
@@ -2197,21 +2389,6 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/reports/semiauto_annotations_class_distributions.xlsx
+++ b/reports/semiauto_annotations_class_distributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDCCE8D-95F5-43A8-AFCF-031126FD3262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A5FC5-E7EA-429F-B37A-A9879A622255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -364,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -398,6 +406,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -408,12 +432,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -431,16 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -744,30 +753,30 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="M4" s="31" t="s">
+      <c r="H4" s="45"/>
+      <c r="M4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="32" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="35"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
@@ -811,7 +820,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -846,7 +855,7 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="37" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -872,7 +881,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -898,7 +907,7 @@
         <f>G7/G$8</f>
         <v>0.956803935692501</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
@@ -922,7 +931,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -950,7 +959,7 @@
         <f>G8/G$8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
@@ -980,7 +989,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1015,7 +1024,7 @@
       <c r="J9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="37" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1041,7 +1050,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1067,7 +1076,7 @@
         <f>G10/G$11</f>
         <v>0.99105328927698</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1100,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1128,7 @@
         <f>G11/G$11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1158,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1184,7 +1193,7 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1210,7 +1219,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1236,7 +1245,7 @@
         <f>G13/G$14</f>
         <v>0.83938272456305696</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1269,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1297,7 @@
         <f>G14/G$14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1324,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1350,7 +1359,7 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="37" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1376,7 +1385,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1411,7 @@
         <f t="shared" si="4"/>
         <v>0.89585872289544477</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1435,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1463,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="39"/>
       <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1484,7 +1493,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1519,7 +1528,7 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="38" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -1549,7 +1558,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1584,7 @@
         <f t="shared" si="4"/>
         <v>0.14821372454337112</v>
       </c>
-      <c r="K19" s="26"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1612,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1640,7 @@
         <f t="shared" si="4"/>
         <v>0.99708738608230429</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="39"/>
       <c r="L20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1670,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1696,7 +1705,7 @@
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="37" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -1726,7 +1735,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1761,7 @@
         <f t="shared" ref="H22:H23" si="7">G22/G$23</f>
         <v>0.67034235454356572</v>
       </c>
-      <c r="K22" s="26"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1780,7 +1789,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1817,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1849,18 +1858,18 @@
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="45"/>
     </row>
     <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -1892,7 +1901,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1901,14 +1910,14 @@
       <c r="C29">
         <v>557</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="25">
         <f>C29/C31</f>
         <v>7.2140914389327807E-2</v>
       </c>
       <c r="E29" s="1">
         <v>5080</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="25">
         <f>E29/E$8</f>
         <v>4.1375827720175604E-2</v>
       </c>
@@ -1916,31 +1925,31 @@
         <f>C29+E29</f>
         <v>5637</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="31">
         <f>G29/G$8</f>
         <v>4.3196064307498963E-2</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="34">
         <f>ABS(D29-F29)</f>
         <v>3.0765086669152203E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="29"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C30">
         <v>7164</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="26">
         <f>C30/C31</f>
         <v>0.92785908561067221</v>
       </c>
       <c r="E30" s="2">
         <v>117697</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="26">
         <f>E30/E$8</f>
         <v>0.95862417227982444</v>
       </c>
@@ -1948,14 +1957,14 @@
         <f>C30+E30</f>
         <v>124861</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="32">
         <f>G30/G$8</f>
         <v>0.956803935692501</v>
       </c>
-      <c r="I30" s="45"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="29"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1963,7 +1972,7 @@
         <f>C29+C30</f>
         <v>7721</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="27">
         <f>C31/C$8</f>
         <v>1</v>
       </c>
@@ -1971,7 +1980,7 @@
         <f>E29+E30</f>
         <v>122777</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="27">
         <f>E31/E$8</f>
         <v>1</v>
       </c>
@@ -1979,14 +1988,14 @@
         <f t="shared" ref="G31:G43" si="11">C31+E31</f>
         <v>130498</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="33">
         <f>G31/G$8</f>
         <v>1</v>
       </c>
-      <c r="I31" s="45"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1995,14 +2004,14 @@
       <c r="C32" s="18">
         <v>5501</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="28">
         <f>C32/C$23</f>
         <v>0.62976531196336571</v>
       </c>
       <c r="E32" s="1">
         <v>37339</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="28">
         <f>E32/E$23</f>
         <v>0.3080318104571928</v>
       </c>
@@ -2010,31 +2019,31 @@
         <f>C32+E32</f>
         <v>42840</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="31">
         <f>G32/G$23</f>
         <v>0.32965764545643422</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="34">
         <f>ABS(D32-F32)</f>
         <v>0.32173350150617291</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
+    <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="38"/>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="18">
         <v>3234</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="29">
         <f>C33/C$23</f>
         <v>0.37023468803663423</v>
       </c>
       <c r="E33" s="2">
         <v>83879</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="29">
         <f>E33/E$23</f>
         <v>0.69196818954280714</v>
       </c>
@@ -2042,14 +2051,14 @@
         <f>C33+E33</f>
         <v>87113</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="32">
         <f>G33/G$23</f>
         <v>0.67034235454356572</v>
       </c>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2057,7 +2066,7 @@
         <f>C32+C33</f>
         <v>8735</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="30">
         <f>C34/C$23</f>
         <v>1</v>
       </c>
@@ -2065,7 +2074,7 @@
         <f>E32+E33</f>
         <v>121218</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="30">
         <f>E34/E$23</f>
         <v>1</v>
       </c>
@@ -2073,14 +2082,15 @@
         <f>C34+E34</f>
         <v>129953</v>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="33">
         <f>G34/G$23</f>
         <v>1</v>
       </c>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="29" t="s">
+      <c r="I34" s="34"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2089,14 +2099,14 @@
       <c r="C35" s="18">
         <v>4288</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="25">
         <f>C35/C$14</f>
         <v>0.405714826379033</v>
       </c>
       <c r="E35" s="8">
         <v>16674</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="25">
         <f>E35/E$14</f>
         <v>0.13901950975487745</v>
       </c>
@@ -2104,31 +2114,31 @@
         <f t="shared" si="11"/>
         <v>20962</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="31">
         <f>G35/G$14</f>
         <v>0.16061727543694304</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="34">
         <f>ABS(D35-F35)</f>
         <v>0.26669531662415558</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="18">
         <v>6281</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="26">
         <f>C36/C$14</f>
         <v>0.594285173620967</v>
       </c>
       <c r="E36" s="8">
         <v>103266</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="26">
         <f>E36/E$14</f>
         <v>0.86098049024512258</v>
       </c>
@@ -2136,14 +2146,14 @@
         <f t="shared" si="11"/>
         <v>109547</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="32">
         <f>G36/G$14</f>
         <v>0.83938272456305696</v>
       </c>
-      <c r="I36" s="45"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="29"/>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
       <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2161,7 @@
         <f>C35+C36</f>
         <v>10569</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="27">
         <f>C37/C$14</f>
         <v>1</v>
       </c>
@@ -2159,7 +2169,7 @@
         <f>E35+E36</f>
         <v>119940</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="27">
         <f>E37/E$14</f>
         <v>1</v>
       </c>
@@ -2167,14 +2177,14 @@
         <f t="shared" si="11"/>
         <v>130509</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="33">
         <f>G37/G$14</f>
         <v>1</v>
       </c>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2183,14 +2193,14 @@
       <c r="C38" s="1">
         <v>3251</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="25">
         <f t="shared" ref="D38:D43" si="12">C38/C$17</f>
         <v>0.3336754593041158</v>
       </c>
       <c r="E38" s="7">
         <v>10336</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="25">
         <f t="shared" ref="F38:F43" si="13">E38/E$17</f>
         <v>8.561677876809913E-2</v>
       </c>
@@ -2198,31 +2208,31 @@
         <f t="shared" si="11"/>
         <v>13587</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="31">
         <f t="shared" ref="H38:H43" si="14">G38/G$17</f>
         <v>0.10414127710455517</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="34">
         <f>ABS(D38-F38)</f>
         <v>0.24805868053601665</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="29"/>
+    <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
       <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="18">
         <v>6492</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="26">
         <f t="shared" si="12"/>
         <v>0.6663245406958842</v>
       </c>
       <c r="E39" s="8">
         <v>110388</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="26">
         <f t="shared" si="13"/>
         <v>0.91438322123190086</v>
       </c>
@@ -2230,14 +2240,14 @@
         <f t="shared" si="11"/>
         <v>116880</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="32">
         <f t="shared" si="14"/>
         <v>0.89585872289544477</v>
       </c>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="36"/>
       <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
@@ -2245,7 +2255,7 @@
         <f>C38+C39</f>
         <v>9743</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="27">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
@@ -2253,7 +2263,7 @@
         <f>E38+E39</f>
         <v>120724</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="27">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -2261,14 +2271,14 @@
         <f t="shared" si="11"/>
         <v>130467</v>
       </c>
-      <c r="H40" s="44">
+      <c r="H40" s="33">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I40" s="45"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="29" t="s">
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2277,14 +2287,14 @@
       <c r="C41" s="18">
         <v>1547</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="25">
         <f t="shared" si="12"/>
         <v>0.15878066304013139</v>
       </c>
       <c r="E41" s="8">
         <v>109203</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="25">
         <f t="shared" si="13"/>
         <v>0.90456744309333692</v>
       </c>
@@ -2292,31 +2302,31 @@
         <f t="shared" si="11"/>
         <v>110750</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="31">
         <f t="shared" si="14"/>
         <v>0.84887366153893318</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="34">
         <f>ABS(D41-F41)</f>
         <v>0.74578678005320553</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="18">
         <v>7789</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="26">
         <f t="shared" si="12"/>
         <v>0.79944575592733247</v>
       </c>
       <c r="E42" s="8">
         <v>11548</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="26">
         <f t="shared" si="13"/>
         <v>9.5656207547794969E-2</v>
       </c>
@@ -2324,14 +2334,14 @@
         <f t="shared" si="11"/>
         <v>19337</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="32">
         <f t="shared" si="14"/>
         <v>0.14821372454337112</v>
       </c>
-      <c r="I42" s="45"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="36"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2349,7 @@
         <f>C41+C42</f>
         <v>9336</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="27">
         <f t="shared" si="12"/>
         <v>0.95822641896746386</v>
       </c>
@@ -2347,7 +2357,7 @@
         <f>E41+E42</f>
         <v>120751</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="27">
         <f t="shared" si="13"/>
         <v>1.0002236506411319</v>
       </c>
@@ -2355,28 +2365,15 @@
         <f t="shared" si="11"/>
         <v>130087</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="33">
         <f t="shared" si="14"/>
         <v>0.99708738608230429</v>
       </c>
-      <c r="I43" s="45"/>
+      <c r="I43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="M4:N4"/>
@@ -2388,7 +2385,20 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/reports/semiauto_annotations_class_distributions.xlsx
+++ b/reports/semiauto_annotations_class_distributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A5FC5-E7EA-429F-B37A-A9879A622255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D0D43F-9662-4799-AE21-41F1333F624F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>Manual</t>
   </si>
@@ -114,13 +114,31 @@
   </si>
   <si>
     <t>Repair</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,14 +156,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -416,12 +426,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -432,6 +436,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,7 +459,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:R43"/>
+  <dimension ref="A3:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,7 +830,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -855,7 +865,7 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -881,7 +891,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -907,7 +917,7 @@
         <f>G7/G$8</f>
         <v>0.956803935692501</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="5" t="s">
         <v>3</v>
       </c>
@@ -931,7 +941,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
@@ -959,7 +969,7 @@
         <f>G8/G$8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
@@ -989,7 +999,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1024,7 +1034,7 @@
       <c r="J9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="35" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -1050,7 +1060,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1086,7 @@
         <f>G10/G$11</f>
         <v>0.99105328927698</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1110,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1138,7 @@
         <f>G11/G$11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1168,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1193,7 +1203,7 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -1219,7 +1229,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1255,7 @@
         <f>G13/G$14</f>
         <v>0.83938272456305696</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1269,7 +1279,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1307,7 @@
         <f>G14/G$14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="5" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1334,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1359,7 +1369,7 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="35" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -1385,7 +1395,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1411,7 +1421,7 @@
         <f t="shared" si="4"/>
         <v>0.89585872289544477</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1445,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1473,7 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1503,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1528,7 +1538,7 @@
       <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="36" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -1558,7 +1568,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1594,7 @@
         <f t="shared" si="4"/>
         <v>0.14821372454337112</v>
       </c>
-      <c r="K19" s="38"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1622,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1650,7 @@
         <f t="shared" si="4"/>
         <v>0.99708738608230429</v>
       </c>
-      <c r="K20" s="39"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1680,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1705,7 +1715,7 @@
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="35" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -1735,7 +1745,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1761,7 +1771,7 @@
         <f t="shared" ref="H22:H23" si="7">G22/G$23</f>
         <v>0.67034235454356572</v>
       </c>
-      <c r="K22" s="38"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="5" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +1799,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1827,7 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K23" s="39"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1870,6 +1880,15 @@
         <v>4</v>
       </c>
       <c r="H27" s="45"/>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -1901,7 +1920,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="38" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1933,9 +1952,12 @@
         <f>ABS(D29-F29)</f>
         <v>3.0765086669152203E-2</v>
       </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
@@ -1962,9 +1984,12 @@
         <v>0.956803935692501</v>
       </c>
       <c r="I30" s="34"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
@@ -1993,9 +2018,21 @@
         <v>1</v>
       </c>
       <c r="I31" s="34"/>
+      <c r="J31" s="46">
+        <f t="shared" ref="J30:J40" si="12">C31/G31</f>
+        <v>5.9165657711229294E-2</v>
+      </c>
+      <c r="K31" s="46">
+        <f t="shared" ref="K30:K40" si="13">E31/G31</f>
+        <v>0.94083434228877072</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" ref="L30:L40" si="14">G31/G31</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2027,9 +2064,12 @@
         <f>ABS(D32-F32)</f>
         <v>0.32173350150617291</v>
       </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2096,12 @@
         <v>0.67034235454356572</v>
       </c>
       <c r="I33" s="34"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="39"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2087,10 +2130,21 @@
         <v>1</v>
       </c>
       <c r="I34" s="34"/>
-      <c r="L34" s="46"/>
+      <c r="J34" s="46">
+        <f t="shared" si="12"/>
+        <v>6.7216609081744941E-2</v>
+      </c>
+      <c r="K34" s="46">
+        <f t="shared" si="13"/>
+        <v>0.93278339091825502</v>
+      </c>
+      <c r="L34" s="46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2122,9 +2176,12 @@
         <f>ABS(D35-F35)</f>
         <v>0.26669531662415558</v>
       </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
@@ -2151,9 +2208,12 @@
         <v>0.83938272456305696</v>
       </c>
       <c r="I36" s="34"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2182,9 +2242,21 @@
         <v>1</v>
       </c>
       <c r="I37" s="34"/>
+      <c r="J37" s="46">
+        <f t="shared" si="12"/>
+        <v>8.098292071811139E-2</v>
+      </c>
+      <c r="K37" s="46">
+        <f t="shared" si="13"/>
+        <v>0.91901707928188858</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2194,14 +2266,14 @@
         <v>3251</v>
       </c>
       <c r="D38" s="25">
-        <f t="shared" ref="D38:D43" si="12">C38/C$17</f>
+        <f t="shared" ref="D38:D43" si="15">C38/C$17</f>
         <v>0.3336754593041158</v>
       </c>
       <c r="E38" s="7">
         <v>10336</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" ref="F38:F43" si="13">E38/E$17</f>
+        <f t="shared" ref="F38:F43" si="16">E38/E$17</f>
         <v>8.561677876809913E-2</v>
       </c>
       <c r="G38" s="1">
@@ -2209,16 +2281,19 @@
         <v>13587</v>
       </c>
       <c r="H38" s="31">
-        <f t="shared" ref="H38:H43" si="14">G38/G$17</f>
+        <f t="shared" ref="H38:H43" si="17">G38/G$17</f>
         <v>0.10414127710455517</v>
       </c>
       <c r="I38" s="34">
         <f>ABS(D38-F38)</f>
         <v>0.24805868053601665</v>
       </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
@@ -2226,14 +2301,14 @@
         <v>6492</v>
       </c>
       <c r="D39" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.6663245406958842</v>
       </c>
       <c r="E39" s="8">
         <v>110388</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.91438322123190086</v>
       </c>
       <c r="G39" s="2">
@@ -2241,13 +2316,16 @@
         <v>116880</v>
       </c>
       <c r="H39" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.89585872289544477</v>
       </c>
       <c r="I39" s="34"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
@@ -2256,7 +2334,7 @@
         <v>9743</v>
       </c>
       <c r="D40" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E40" s="3">
@@ -2264,7 +2342,7 @@
         <v>120724</v>
       </c>
       <c r="F40" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G40" s="2">
@@ -2272,13 +2350,25 @@
         <v>130467</v>
       </c>
       <c r="H40" s="33">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="46">
+        <f t="shared" si="12"/>
+        <v>7.4677887895023262E-2</v>
+      </c>
+      <c r="K40" s="46">
+        <f t="shared" si="13"/>
+        <v>0.92532211210497672</v>
+      </c>
+      <c r="L40" s="46">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2288,14 +2378,14 @@
         <v>1547</v>
       </c>
       <c r="D41" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.15878066304013139</v>
       </c>
       <c r="E41" s="8">
         <v>109203</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.90456744309333692</v>
       </c>
       <c r="G41" s="1">
@@ -2303,16 +2393,19 @@
         <v>110750</v>
       </c>
       <c r="H41" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.84887366153893318</v>
       </c>
       <c r="I41" s="34">
         <f>ABS(D41-F41)</f>
         <v>0.74578678005320553</v>
       </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -2320,14 +2413,14 @@
         <v>7789</v>
       </c>
       <c r="D42" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.79944575592733247</v>
       </c>
       <c r="E42" s="8">
         <v>11548</v>
       </c>
       <c r="F42" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.5656207547794969E-2</v>
       </c>
       <c r="G42" s="2">
@@ -2335,13 +2428,16 @@
         <v>19337</v>
       </c>
       <c r="H42" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.14821372454337112</v>
       </c>
       <c r="I42" s="34"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>4</v>
       </c>
@@ -2350,7 +2446,7 @@
         <v>9336</v>
       </c>
       <c r="D43" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.95822641896746386</v>
       </c>
       <c r="E43" s="3">
@@ -2358,7 +2454,7 @@
         <v>120751</v>
       </c>
       <c r="F43" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0002236506411319</v>
       </c>
       <c r="G43" s="2">
@@ -2366,13 +2462,99 @@
         <v>130087</v>
       </c>
       <c r="H43" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.99708738608230429</v>
       </c>
       <c r="I43" s="34"/>
+      <c r="J43" s="46">
+        <f t="shared" ref="J42:J43" si="18">C43/G43</f>
+        <v>7.1767355692728713E-2</v>
+      </c>
+      <c r="K43" s="46">
+        <f t="shared" ref="K42:K43" si="19">E43/G43</f>
+        <v>0.92823264430727126</v>
+      </c>
+      <c r="L43" s="46">
+        <f t="shared" ref="L42:L43" si="20">G43/G43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="46">
+        <f>AVERAGE(J31:J43)</f>
+        <v>7.0762086219767512E-2</v>
+      </c>
+      <c r="K44" s="46">
+        <f t="shared" ref="K44:L44" si="21">AVERAGE(K31:K43)</f>
+        <v>0.92923791378023246</v>
+      </c>
+      <c r="L44" s="46">
+        <f>SUM(J44:K44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="20">
+        <v>3.6684559727238088E-2</v>
+      </c>
+      <c r="K45" s="20">
+        <v>0.96327001360276399</v>
+      </c>
+      <c r="L45" s="46">
+        <f t="shared" ref="L45:L46" si="22">SUM(J45:K45)</f>
+        <v>0.99995457333000204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="20">
+        <v>2.1899023114663775E-2</v>
+      </c>
+      <c r="K46" s="20">
+        <v>0.97915701004871303</v>
+      </c>
+      <c r="L46" s="46">
+        <f t="shared" si="22"/>
+        <v>1.0010560331633769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="46">
+        <f>AVERAGE(J44:J46)</f>
+        <v>4.3115223020556454E-2</v>
+      </c>
+      <c r="K47" s="46">
+        <f>AVERAGE(K44:K46)</f>
+        <v>0.95722164581056968</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K21:K23"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
@@ -2385,20 +2567,6 @@
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
